--- a/medicine/Psychotrope/Château_de_Château-Grillet/Château_de_Château-Grillet.xlsx
+++ b/medicine/Psychotrope/Château_de_Château-Grillet/Château_de_Château-Grillet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Ch%C3%A2teau-Grillet</t>
+          <t>Château_de_Château-Grillet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Château-Grillet est situé sur un coteau en forte pente aux confins de Vérin et de Saint-Michel-sur-Rhône, dans le département de la Loire, sur la rive droite du Rhône, au cœur d’un vignoble réputé.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Ch%C3%A2teau-Grillet</t>
+          <t>Château_de_Château-Grillet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le logis principal, orienté au midi, se compose :
 d’un bâtiment comprenant un avant-corps central carré s’étageant sur trois niveaux et cantonné de quatre tours de faible diamètre percées de petites ouvertures,
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Ch%C3%A2teau-Grillet</t>
+          <t>Château_de_Château-Grillet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le domaine est exploité en vignoble depuis l’époque romaine.
 Desargues
@@ -576,7 +592,7 @@
 Indivision Canet
 Propriété gérée par Isabelle Baratin-Canet, fille des précédents, épouse François Baratin; ils ont un fils, Nicolas.
 François Pinault
-En 2011, le milliardaire François Pinault a racheté le château à Isabelle Baratin-Canet et sa famille[1]</t>
+En 2011, le milliardaire François Pinault a racheté le château à Isabelle Baratin-Canet et sa famille</t>
         </is>
       </c>
     </row>
@@ -586,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Ch%C3%A2teau-Grillet</t>
+          <t>Château_de_Château-Grillet</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -605,6 +621,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
